--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5106-1B7B-437F-A31E-71F00119EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500921E4-4695-4BA0-982D-DCF3D03E514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="5400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>2.1 sqlserver 代理服务是否正常 52</t>
   </si>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>1. kcettle 运行是否正常 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +400,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,25 +441,31 @@
       <c r="A2" s="1">
         <v>45761</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45762</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500921E4-4695-4BA0-982D-DCF3D03E514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EAFEE3-0BEC-47AE-BD45-1949160A12FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>2.1 sqlserver 代理服务是否正常 52</t>
   </si>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查上报失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,53 +401,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45761</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -451,252 +457,304 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45762</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45763</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45764</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45765</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45766</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45767</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45768</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45769</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45770</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45771</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45772</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45773</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45774</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45775</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45776</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45777</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45778</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45779</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45780</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45781</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45782</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45783</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45784</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45785</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45786</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45787</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45788</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45789</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45790</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45791</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45792</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45793</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45794</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45795</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45796</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45797</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45798</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45799</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45800</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45801</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45802</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45803</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45804</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45805</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45806</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45807</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45808</v>
       </c>
+      <c r="B49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EAFEE3-0BEC-47AE-BD45-1949160A12FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA88D5-5B1F-4F48-A21E-7410015005CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>2.1 sqlserver 代理服务是否正常 52</t>
   </si>
@@ -58,7 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查上报失败</t>
+    <t>6.磁盘空间是否足够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.检查上报失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,14 +117,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,51 +425,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45761</v>
       </c>
@@ -466,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45762</v>
       </c>
@@ -478,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45763</v>
       </c>
@@ -486,73 +510,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45764</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45765</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45766</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45767</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45768</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45769</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45770</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45771</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45772</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45773</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45774</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45775</v>
       </c>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170F31A-0163-4770-AB3E-F0F769375ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09504FD-F739-4F62-8E93-AA25BE4556A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -56,13 +56,22 @@
   </si>
   <si>
     <t>足够</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.查看任务运行状态
+select id,zylsh,createdtime from t_job_settlebillinglist order by createdtime desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +98,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +175,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -466,10 +485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,9 +500,10 @@
     <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +531,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45761</v>
       </c>
@@ -533,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45762</v>
       </c>
@@ -545,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45763</v>
       </c>
@@ -553,7 +576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45764</v>
       </c>
@@ -564,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45765</v>
       </c>
@@ -578,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45766</v>
       </c>
@@ -607,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45767</v>
       </c>
@@ -636,37 +659,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45768</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45769</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45770</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45772</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45773</v>
       </c>
@@ -695,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45774</v>
       </c>
@@ -708,7 +765,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45775</v>
       </c>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09504FD-F739-4F62-8E93-AA25BE4556A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20D1D4-C237-4429-BADE-6949D9F60133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -159,12 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -179,6 +173,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,13 +488,13 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
@@ -503,43 +503,43 @@
     <col min="10" max="10" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>45761</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -557,10 +557,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>45762</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -569,18 +569,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>45763</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>45764</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
@@ -588,10 +588,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>45765</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -602,68 +602,68 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>45766</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>45767</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>45768</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -682,463 +682,474 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>45769</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>45770</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>45771</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>45772</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>45773</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>45774</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>45775</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>45776</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>45777</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>45778</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>45779</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>45780</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>45781</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>45782</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>45783</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>45784</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>45785</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>45786</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>45787</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>45788</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>45789</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>45790</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>45791</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>45792</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>45793</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>45794</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>45795</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>45796</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>45797</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>45798</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>45799</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>45800</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>45801</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>45802</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>45803</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>45804</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>45805</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>45806</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>45807</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>45808</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20D1D4-C237-4429-BADE-6949D9F60133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B39C1-FA4E-4417-9290-81ECAA709852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,7 +726,21 @@
       <c r="A12" s="2">
         <v>45771</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B39C1-FA4E-4417-9290-81ECAA709852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45073C6-FDCB-4106-B4F9-8EED907B6E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,7 +746,21 @@
       <c r="A13" s="2">
         <v>45772</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -781,14 +795,31 @@
       <c r="A15" s="2">
         <v>45774</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45073C6-FDCB-4106-B4F9-8EED907B6E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD75DE-E038-4214-8ED1-EBB91FAA807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,7 +825,28 @@
       <c r="A16" s="2">
         <v>45775</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD75DE-E038-4214-8ED1-EBB91FAA807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46502F5B-6A23-426A-8F91-FD5CFF16700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+      <selection activeCell="B17" sqref="B17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,73 +848,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45776</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45777</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45778</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45779</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45780</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45781</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45782</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45783</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45784</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45785</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45786</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45787</v>
       </c>
@@ -943,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45788</v>
       </c>
@@ -972,19 +993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45789</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45790</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45791</v>
       </c>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46502F5B-6A23-426A-8F91-FD5CFF16700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2BB55-D51E-4CB0-BA04-0DAAA637F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="1800" windowWidth="21930" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:J17"/>
+      <selection activeCell="B18" sqref="B18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -879,7 +879,28 @@
       <c r="A18" s="2">
         <v>45777</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2BB55-D51E-4CB0-BA04-0DAAA637F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183D8F4-8E52-426D-80B8-93D9782D3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1800" windowWidth="21930" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
     <t>日期时间</t>
   </si>
@@ -64,6 +64,14 @@
   <si>
     <t>7.查看任务运行状态
 select id,zylsh,createdtime from t_job_settlebillinglist order by createdtime desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，还存在未上报数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,7 +506,7 @@
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.25" customWidth="1"/>
   </cols>
@@ -762,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45773</v>
       </c>
@@ -902,41 +910,176 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45778</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45779</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45780</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45781</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45782</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45783</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183D8F4-8E52-426D-80B8-93D9782D3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A79DF-3CAF-4248-9D72-76048B415688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
   <si>
     <t>日期时间</t>
   </si>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,19 +1085,85 @@
       <c r="A25" s="2">
         <v>45784</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45785</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45786</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1161,33 +1227,118 @@
       <c r="A30" s="2">
         <v>45789</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45790</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45791</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45792</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45793</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45794</v>
       </c>
@@ -1216,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45795</v>
       </c>
@@ -1245,37 +1396,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45796</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45797</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45798</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45799</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45800</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45801</v>
       </c>
@@ -1304,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45802</v>
       </c>
@@ -1333,31 +1484,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45803</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45804</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45805</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45806</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45807</v>
       </c>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A79DF-3CAF-4248-9D72-76048B415688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED877B-8B0E-4557-B784-F79BEE42255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
   <si>
     <t>日期时间</t>
   </si>
@@ -495,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1336,7 +1336,28 @@
       <c r="A34" s="2">
         <v>45793</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1400,31 +1421,139 @@
       <c r="A37" s="2">
         <v>45796</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45797</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45798</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45799</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45800</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1488,13 +1617,55 @@
       <c r="A44" s="2">
         <v>45803</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45804</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED877B-8B0E-4557-B784-F79BEE42255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A6BC6-4B8F-41E3-BAC2-62FB66D1D9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="市立" sheetId="2" r:id="rId1"/>
+    <sheet name="市立三院" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="24">
   <si>
     <t>日期时间</t>
   </si>
@@ -74,12 +81,41 @@
     <t>完成，还存在未上报数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>市立</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误后修正</t>
+  </si>
+  <si>
+    <t>空间不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 sqlserver 代理服务是否正常 52/53</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正后完成</t>
+  </si>
+  <si>
+    <t>市立三院</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +149,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,13 +535,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C956D3-2EE0-4205-95F9-71DFFF54D7A1}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>46015</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>46016</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>46017</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>46018</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>46019</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>46020</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>46024</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>46025</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>46026</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>46027</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>46032</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>46033</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>46035</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>46036</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>46037</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>46039</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>46040</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>46041</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>46042</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>46043</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46046</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>46047</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46053</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46054</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46055</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>46056</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>46062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>46066</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>46089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>46095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>46110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>46120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>46123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>46133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>46137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>46138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>46139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>46145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>46146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>46147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>46148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>46154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 C2:F1048576 H2:H1048576" xr:uid="{333FBB05-7FD0-43D8-A5C2-08BF10EA5C29}">
+      <formula1>"正常,错误后修正"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{02A71FEB-3C75-44B0-ABF5-8B607ED369B3}">
+      <formula1>"完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7B00A0C7-2406-456F-89E9-483979CDEE98}">
+      <formula1>"足够,空间不足,释放后足够"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{EFDF0582-D2E5-480B-82D9-0405941853C1}">
+      <formula1>"完成,无上报失败,修正后完成,修正后留存"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B0E17F-5A37-4FAD-B3BC-EF976CC249B3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>46015</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>46016</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>46017</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>46018</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>46019</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>46020</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>46024</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>46025</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>46026</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>46027</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>46032</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>46033</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>46035</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>46036</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>46037</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>46039</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>46040</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>46041</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>46042</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>46043</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46046</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>46047</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46053</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46054</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46055</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>46056</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>46062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>46066</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>46089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>46095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>46110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>46120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>46123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>46133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>46137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>46138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>46139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>46145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>46146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>46147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>46148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>46154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{FD471480-44EB-412A-8B3B-CAE6FF503303}">
+      <formula1>"完成,无上报失败,修正后完成,修正后留存"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{5C57EBBB-1ABC-45A0-82F2-7A0FB6945521}">
+      <formula1>"足够,空间不足,释放后足够"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{75FB48DD-5961-4B41-B2B7-C9E629A7F8ED}">
+      <formula1>"完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 C2:F1048576 H2:H1048576" xr:uid="{FB3681F7-FC65-4C47-A5B9-818E76687723}">
+      <formula1>"正常,错误后修正"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A6BC6-4B8F-41E3-BAC2-62FB66D1D9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B6BEF-E042-49ED-8356-E86F918F0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="32">
   <si>
     <t>日期时间</t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>市立三院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. kcettle 运行是否正常 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.磁盘空间是否足够</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查看任务运行状态
+select id,zylsh,createdtime from t_job_settlebillinglist order by createdtime desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.任务运行状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.检查上报失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 每月 15 16 对数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. drg 巡检记录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 医保平台 匹配成功但校验不通过 不应存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,62 +572,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45761</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -603,30 +641,33 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45762</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -635,284 +676,305 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46015</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46016</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46017</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46018</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46019</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46020</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46021</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46022</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46023</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46024</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46025</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46026</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46027</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46028</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46029</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46030</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>46031</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46032</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>46033</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46034</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46035</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46036</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46037</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>46038</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>46039</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>46040</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>46041</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46042</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46043</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>46044</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>46045</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>46046</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>46047</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>46048</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46049</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>46050</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>46051</v>
       </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>46052</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>46053</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>46054</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>46055</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>46056</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>46057</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46058</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46059</v>
       </c>
@@ -1395,16 +1457,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 C2:F1048576 H2:H1048576" xr:uid="{333FBB05-7FD0-43D8-A5C2-08BF10EA5C29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G1048576 B2:I1048576 K2:K1048576" xr:uid="{333FBB05-7FD0-43D8-A5C2-08BF10EA5C29}">
       <formula1>"正常,错误后修正"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{02A71FEB-3C75-44B0-ABF5-8B607ED369B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{02A71FEB-3C75-44B0-ABF5-8B607ED369B3}">
       <formula1>"完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7B00A0C7-2406-456F-89E9-483979CDEE98}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{7B00A0C7-2406-456F-89E9-483979CDEE98}">
       <formula1>"足够,空间不足,释放后足够"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{EFDF0582-D2E5-480B-82D9-0405941853C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{EFDF0582-D2E5-480B-82D9-0405941853C1}">
       <formula1>"完成,无上报失败,修正后完成,修正后留存"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1421,7 +1483,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>21</v>
@@ -1534,6 +1596,9 @@
         <v>46015</v>
       </c>
       <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B6BEF-E042-49ED-8356-E86F918F0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63C0D7-1CF9-4EA9-932E-416CFB92C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="市立" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="31">
   <si>
     <t>日期时间</t>
   </si>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>市立三院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. kcettle 运行是否正常 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.磁盘空间是否足够</t>
@@ -574,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,25 +602,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,6 +741,24 @@
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1480,62 +1494,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45761</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1544,30 +1563,33 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45762</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1576,287 +1598,323 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46015</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46016</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46017</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46018</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46019</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46020</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46021</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46022</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46023</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46024</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46025</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46026</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46027</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46028</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46029</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46030</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>46031</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46032</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>46033</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46034</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46035</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46036</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46037</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>46038</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>46039</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>46040</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>46041</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46042</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46043</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>46044</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>46045</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>46046</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>46047</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>46048</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46049</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>46050</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>46051</v>
       </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>46052</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>46053</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>46054</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>46055</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>46056</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>46057</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46058</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46059</v>
       </c>
@@ -2339,16 +2397,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{FD471480-44EB-412A-8B3B-CAE6FF503303}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{4737C19C-DED0-4CB2-BDD6-6234A97D5119}">
       <formula1>"完成,无上报失败,修正后完成,修正后留存"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{5C57EBBB-1ABC-45A0-82F2-7A0FB6945521}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E0577B49-046D-413F-8386-6540419F67B7}">
       <formula1>"足够,空间不足,释放后足够"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{75FB48DD-5961-4B41-B2B7-C9E629A7F8ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{B5CA7CEE-8E9B-43FF-9AA1-0B2AC1478569}">
       <formula1>"完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 C2:F1048576 H2:H1048576" xr:uid="{FB3681F7-FC65-4C47-A5B9-818E76687723}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I1048576 K2:K1048576" xr:uid="{C565622A-7B8E-447A-9CF4-E4C71BE30705}">
       <formula1>"正常,错误后修正"</formula1>
     </dataValidation>
   </dataValidations>

--- a/日志/日志记录.xlsx
+++ b/日志/日志记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WinMySelf\0.NOTE\WEGONOTE\WEGONote\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63C0D7-1CF9-4EA9-932E-416CFB92C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE08C98-8CB9-4B84-B15B-3216E52958B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="420" windowWidth="29040" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="市立" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="31">
   <si>
     <t>日期时间</t>
   </si>
@@ -570,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,7 +796,27 @@
       <c r="A15" s="2">
         <v>46026</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1471,7 +1491,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G1048576 B2:I1048576 K2:K1048576" xr:uid="{333FBB05-7FD0-43D8-A5C2-08BF10EA5C29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 B2:I1048576" xr:uid="{333FBB05-7FD0-43D8-A5C2-08BF10EA5C29}">
       <formula1>"正常,错误后修正"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{02A71FEB-3C75-44B0-ABF5-8B607ED369B3}">
@@ -1496,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,7 +1742,27 @@
       <c r="A15" s="2">
         <v>46026</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2406,7 +2446,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{B5CA7CEE-8E9B-43FF-9AA1-0B2AC1478569}">
       <formula1>"完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I1048576 K2:K1048576" xr:uid="{C565622A-7B8E-447A-9CF4-E4C71BE30705}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 B2:I1048576" xr:uid="{C565622A-7B8E-447A-9CF4-E4C71BE30705}">
       <formula1>"正常,错误后修正"</formula1>
     </dataValidation>
   </dataValidations>
